--- a/public/preprocessing/@dokterhasto_w.xlsx
+++ b/public/preprocessing/@dokterhasto_w.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22366</v>
+        <v>31440</v>
       </c>
       <c r="C2" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['kepada', 'seluruh', 'masyarakat', 'kulon', 'progo', 'saya', 'mohon', 'pamit', 'dan', 'doa', 'untuk', 'mengemban', 'tugas', 'sebagai', 'kepala', 'bkkbn', 'pusat']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['masyarakat', 'kulon', 'progo', 'mohon', 'pamit', 'doa', 'mengemban', 'tugas', 'kepala', 'bkkbn', 'pusat']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['masyarakat', 'kulon', 'progo', 'mohon', 'pamit', 'doa', 'emban', 'tugas', 'kepala', 'bkkbn', 'pusat']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22367</v>
+        <v>31441</v>
       </c>
       <c r="C3" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'keluarga', 'nasional', 'ke', 'xxvi', 'saya', 'berharap', 'keluarga', 'kita', 'semua', 'mampu', 'menjadi', 'keluarga', 'yang', 'tentram', 'mand']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['selamat', 'keluarga', 'nasional', 'xxvi', 'berharap', 'keluarga', 'keluarga', 'tentram', 'mand']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['selamat', 'keluarga', 'nasional', 'xxvi', 'harap', 'keluarga', 'keluarga', 'tentram', 'mand']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22368</v>
+        <v>31442</v>
       </c>
       <c r="C4" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'kepada', 'seluruh', 'pedagang', 'yang', 'suka', 'rela', 'pindah', 'ke', 'pasar', 'bela', 'beli', 'barat', 'teteg', 'barteg', 'dari', 'pasar', 'tete']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'pedagang', 'suka', 'rela', 'pindah', 'pasar', 'bela', 'beli', 'barat', 'teteg', 'barteg', 'pasar', 'tete']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'dagang', 'suka', 'rela', 'pindah', 'pasar', 'bela', 'beli', 'barat', 'teteg', 'barteg', 'pasar', 'tete']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22369</v>
+        <v>31443</v>
       </c>
       <c r="C5" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['pintar', 'city', 'menjadi', 'tugas', 'dan', 'solusi', 'dalam', 'optimalisasi', 'pelayanan', 'masyarakat', 'kabupaten', 'kulon', 'progo', 'saya', 'terus', 'mend']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['smart', 'city', 'tugas', 'solusi', 'optimalisasi', 'pelayanan', 'masyarakat', 'kabupaten', 'kulon', 'progo', 'mend']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['smart', 'city', 'tugas', 'solusi', 'optimalisasi', 'layan', 'masyarakat', 'kabupaten', 'kulon', 'progo', 'mend']</t>
+          <t>['pintar', 'city', 'tugas', 'solusi', 'optimalisasi', 'pelayanan', 'masyarakat', 'kabupaten', 'kulon', 'progo', 'mend']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['pintar', 'city', 'tugas', 'solusi', 'optimalisasi', 'layan', 'masyarakat', 'kabupaten', 'kulon', 'progo', 'mend']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22370</v>
+        <v>31444</v>
       </c>
       <c r="C6" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['rt', 'ikut', 'event', 'menarik', 'sleman', 'temple', 'run', 'bupati', 'kulon', 'progo', 'dari', 'hasto', 'wardoyo', 'mengajak', 'para', 'lari']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['event', 'menarik', 'sleman', 'temple', 'run', 'bupati', 'kulon', 'progo', 'dr', 'hasto', 'wardoyo', 'mengajak', 'lari']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['event', 'tarik', 'sleman', 'temple', 'run', 'bupati', 'kulon', 'progo', 'dr', 'hasto', 'wardoyo', 'ajak', 'lari']</t>
+          <t>['event', 'menarik', 'sleman', 'temple', 'run', 'bupati', 'kulon', 'progo', 'hasto', 'wardoyo', 'mengajak', 'lari']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['event', 'tarik', 'sleman', 'temple', 'run', 'bupati', 'kulon', 'progo', 'hasto', 'wardoyo', 'ajak', 'lari']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22371</v>
+        <v>31445</v>
       </c>
       <c r="C7" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['hari', 'yang', 'fitri', 'telah', 'tiba', 'mari', 'sucikan', 'hati', 'bersihkan', 'jiwa', 'satukan', 'jemari', 'saling', 'memaafkan', 'selamat', 'hari', 'raya', 'idu']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['fitri', 'mari', 'sucikan', 'hati', 'bersihkan', 'jiwa', 'satukan', 'jemari', 'memaafkan', 'selamat', 'raya', 'idu']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['fitri', 'mari', 'suci', 'hati', 'sih', 'jiwa', 'satu', 'jemari', 'maaf', 'selamat', 'raya', 'idu']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22372</v>
+        <v>31446</v>
       </c>
       <c r="C8" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['pendidikan', 'karakter', 'itu', 'penting', 'untuk', 'melatih', 'anak', 'dengan', 'empati', 'sejak', 'dini', 'peraturan, daerah', 'pendidikan', 'karakter', 'kulon', 'pro']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['pendidikan', 'karakter', 'melatih', 'anak', 'empati', 'perda', 'pendidikan', 'karakter', 'kulon', 'pro']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['didik', 'karakter', 'latih', 'anak', 'empati', 'perda', 'didik', 'karakter', 'kulon', 'pro']</t>
+          <t>['pendidikan', 'karakter', 'melatih', 'anak', 'empati', 'peraturan, daerah', 'pendidikan', 'karakter', 'kulon', 'pro']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['didik', 'karakter', 'latih', 'anak', 'empati', 'atur daerah', 'didik', 'karakter', 'kulon', 'pro']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22373</v>
+        <v>31447</v>
       </c>
       <c r="C9" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'kami', 'bersama', 'calon, pegawai, negeri, sipil', 'ikut', 'membantu', 'bedah', 'rumah', 'penduduk', 'miskin', 'kulon', 'progo', 'mereka', 'suka', 'membayar', 'zakat']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['alhamdulillah', 'cpns', 'membantu', 'bedah', 'rumah', 'penduduk', 'miskin', 'kulon', 'progo', 'suka', 'membayar', 'zakat']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'cpns', 'bantu', 'bedah', 'rumah', 'duduk', 'miskin', 'kulon', 'progo', 'suka', 'bayar', 'zakat']</t>
+          <t>['alhamdulillah', 'calon, pegawai, negeri, sipil', 'membantu', 'bedah', 'rumah', 'penduduk', 'miskin', 'kulon', 'progo', 'suka', 'membayar', 'zakat']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'calon pegawai negeri sipil', 'bantu', 'bedah', 'rumah', 'duduk', 'miskin', 'kulon', 'progo', 'suka', 'bayar', 'zakat']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22374</v>
+        <v>31448</v>
       </c>
       <c r="C10" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,17 +825,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['kami', 'baru', 'saja', 'secara', 'simbolis', 'melepas', 'distribusi', 'surat', 'suara', 'pemilihan, umum', 'ke', 'tempat, pemungutan, suara', 'mari', 'kita', 'dukung', 'komisi, pemelihan, umum', 'mewujudkan']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['simbolis', 'melepas', 'distribusi', 'surat', 'suara', 'pemilu', 'tps', 'mari', 'dukung', 'kpu', 'mewujudkan']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['simbolis', 'lepas', 'distribusi', 'surat', 'suara', 'milu', 'tps', 'mari', 'dukung', 'kpu', 'wujud']</t>
+          <t>['simbolis', 'melepas', 'distribusi', 'surat', 'suara', 'pemilihan, umum', 'tempat, pemungutan, suara', 'mari', 'dukung', 'komisi, pemelihan, umum', 'mewujudkan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['simbolis', 'lepas', 'distribusi', 'surat', 'suara', 'pilih umum', 'tempat mungut suara', 'mari', 'dukung', 'komisi pemelihan umum', 'wujud']</t>
         </is>
       </c>
     </row>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22375</v>
+        <v>31449</v>
       </c>
       <c r="C11" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['saya', 'mengajak', 'kepada', 'seluruh', 'masyarakat', 'untuk', 'datang', 'di', 'tempat, pemungutan, suara', 'menggunakan', 'hak', 'pilih', 'pada', 'pemilihan, umum', 'april', 'mari']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['mengajak', 'masyarakat', 'tps', 'hak', 'pilih', 'pemilu', 'april', 'mari']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ajak', 'masyarakat', 'tps', 'hak', 'pilih', 'milu', 'april', 'mari']</t>
+          <t>['mengajak', 'masyarakat', 'tempat, pemungutan, suara', 'hak', 'pilih', 'pemilihan, umum', 'april', 'mari']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['ajak', 'masyarakat', 'tempat mungut suara', 'hak', 'pilih', 'pilih umum', 'april', 'mari']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22376</v>
+        <v>31450</v>
       </c>
       <c r="C12" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['saya', 'berpesan', 'kepada', 'masyarakat', 'di', 'safari', 'jumat', 'masjid', 'barokatul', 'ummah', 'agar', 'masyarakat', 'menggunakan', 'hak', 'pilih', 'pemilihan, umum']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['berpesan', 'masyarakat', 'safari', 'jumat', 'masjid', 'barokatul', 'ummah', 'masyarakat', 'hak', 'pilih', 'pemilu']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['pesan', 'masyarakat', 'safari', 'jumat', 'masjid', 'barokatul', 'ummah', 'masyarakat', 'hak', 'pilih', 'milu']</t>
+          <t>['berpesan', 'masyarakat', 'safari', 'jumat', 'masjid', 'barokatul', 'ummah', 'masyarakat', 'hak', 'pilih', 'pemilihan, umum']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['pesan', 'masyarakat', 'safari', 'jumat', 'masjid', 'barokatul', 'ummah', 'masyarakat', 'hak', 'pilih', 'pilih umum']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22377</v>
+        <v>31451</v>
       </c>
       <c r="C13" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['kami', 'berpesan', 'memaknai', 'hari, ulang, tahun', 'satuan, polisi', 'pp', 'perlindungan, masyarakat', 'dan', 'pemadam', 'kebakaran', 'di', 'era', 'digital', 'ini', 'agar', 'layanan', 'reaksi', 'siaga', 'apa']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['berpesan', 'memaknai', 'hut', 'satpol', 'pp', 'linmas', 'pemadam', 'kebakaran', 'era', 'digital', 'layanan', 'reaksi', 'siaga', 'ha']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['pesan', 'makna', 'hut', 'satpol', 'pp', 'linmas', 'madam', 'bakar', 'era', 'digital', 'layan', 'reaksi', 'siaga', 'ha']</t>
+          <t>['berpesan', 'memaknai', 'hari, ulang, tahun', 'satuan, polisi', 'pp', 'perlindungan, masyarakat', 'pemadam', 'kebakaran', 'era', 'digital', 'layanan', 'reaksi', 'siaga']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['pesan', 'makna', 'hari ulang tahun', 'satu polisi', 'pp', 'lindung masyarakat', 'madam', 'bakar', 'era', 'digital', 'layan', 'reaksi', 'siaga']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22378</v>
+        <v>31452</v>
       </c>
       <c r="C14" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['kami', 'baru', 'saja', 'melaunching', 'pulsaku', 'untuk', 'masyarakat', 'dengan', 'pilot', 'proyek', 'di', 'desa', 'hargotirto', 'dan', 'hargowilis', 'kokap']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['melaunching', 'pulsaku', 'masyarakat', 'pilot', 'project', 'desa', 'hargotirto', 'hargowilis', 'kokap']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['melaunching', 'pulsa', 'masyarakat', 'pilot', 'project', 'desa', 'hargotirto', 'hargowilis', 'kokap']</t>
+          <t>['melaunching', 'pulsaku', 'masyarakat', 'pilot', 'proyek', 'desa', 'hargotirto', 'hargowilis', 'kokap']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['melaunching', 'pulsa', 'masyarakat', 'pilot', 'proyek', 'desa', 'hargotirto', 'hargowilis', 'kokap']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22379</v>
+        <v>31453</v>
       </c>
       <c r="C15" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['saya', 'ingin', 'membentuk', 'dari', 'awal', 'karakter', 'dan', 'mindset', 'pegawai, negeri, sipil', 'dengan', 'pendataan', 'ke', 'masyarakat', 'agar', 'menghayati', 'kemiskinan']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['membentuk', 'karakter', 'mindset', 'pns', 'pendataan', 'masyarakat', 'menghayati', 'kemiskinan']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['bentuk', 'karakter', 'mindset', 'pns', 'data', 'masyarakat', 'hayati', 'miskin']</t>
+          <t>['membentuk', 'karakter', 'mindset', 'pegawai, negeri, sipil', 'pendataan', 'masyarakat', 'menghayati', 'kemiskinan']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['bentuk', 'karakter', 'mindset', 'pegawai negeri sipil', 'data', 'masyarakat', 'hayati', 'miskin']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22380</v>
+        <v>31454</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['mari', 'segera', 'lapor', 'surat, pemberitahuan, tahunan', 'pph', 'orang', 'pribadi', 'tahunan', 'melalui', 'efilling', 'sekarang', 'juga', 'efilling', 'lebih', 'awal', 'lebih', 'nya']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['mari', 'lapor', 'spt', 'pph', 'orang', 'pribadi', 'tahunan', 'efilling', 'efilling']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['mari', 'lapor', 'spt', 'pph', 'orang', 'pribadi', 'tahun', 'efilling', 'efilling']</t>
+          <t>['mari', 'lapor', 'surat, pemberitahuan, tahunan', 'pph', 'orang', 'pribadi', 'tahunan', 'efilling', 'efilling']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['mari', 'lapor', 'surat pemberitahuan tahun', 'pph', 'orang', 'pribadi', 'tahun', 'efilling', 'efilling']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22381</v>
+        <v>31455</v>
       </c>
       <c r="C17" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['kita', 'harus', 'menjawab', 'cepat', 'memasuki', 'industri', 'dengan', 'bekerja, sama', 'dengan', 'unicorn', 'untuk', 'memasarkan', 'produk', 'lokal']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['merespon', 'cepat', 'memasuki', 'industri', 'bekerjasama', 'unicorn', 'memasarkan', 'produk', 'lokal']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['merespon', 'cepat', 'pasuk', 'industri', 'bekerjasama', 'unicorn', 'pasar', 'produk', 'lokal']</t>
+          <t>['cepat', 'memasuki', 'industri', 'bekerja, sama', 'unicorn', 'memasarkan', 'produk', 'lokal']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['cepat', 'pasuk', 'industri', 'kerja sama', 'unicorn', 'pasar', 'produk', 'lokal']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22382</v>
+        <v>31456</v>
       </c>
       <c r="C18" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'kami', 'bersyukur', 'kabupaten', 'kulon', 'progo', 'meraih', 'penghargaan', 'nilai', 'akuntabilitas', 'kinerja', 'dari', 'menteri']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'bersyukur', 'kabupaten', 'kulon', 'progo', 'meraih', 'penghargaan', 'nilai', 'akuntabilitas', 'kinerja', 'menteri']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'syukur', 'kabupaten', 'kulon', 'progo', 'raih', 'harga', 'nilai', 'akuntabilitas', 'kerja', 'menteri']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22383</v>
+        <v>31457</v>
       </c>
       <c r="C19" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['kami', 'mencanangkan', 'gerakan', 'serentak', 'pemberantasan', 'sarang', 'nyamuk', 'gertak', 'play, station, network', 'untuk', 'mencegah', 'demam', 'berdarah', 'bersamas']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['mencanangkan', 'gerakan', 'serentak', 'pemberantasan', 'sarang', 'nyamuk', 'gertak', 'psn', 'mencegah', 'demam', 'berdarah', 'bersamas']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['canang', 'gera', 'serentak', 'berantas', 'sarang', 'nyamuk', 'gertak', 'psn', 'cegah', 'demam', 'darah', 'samas']</t>
+          <t>['mencanangkan', 'gerakan', 'serentak', 'pemberantasan', 'sarang', 'nyamuk', 'gertak', 'play, station, network', 'mencegah', 'demam', 'berdarah', 'bersamas']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['canang', 'gera', 'serentak', 'berantas', 'sarang', 'nyamuk', 'gertak', 'play station network', 'cegah', 'demam', 'darah', 'samas']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22384</v>
+        <v>31458</v>
       </c>
       <c r="C20" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['perkembangan', 'sumber', 'daya', 'manusia', 'sumber, daya, manusia', 'berkualitas', 'ditentukan', 'di', 'masa', 'emas', 'usia', 'anakanak', 'untuk', 'itu', 'kami', 'membent']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['perkembangan', 'sumber', 'daya', 'manusia', 'sdm', 'berkualitas', 'ditentukan', 'emas', 'usia', 'anakanak', 'membent']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kembang', 'sumber', 'daya', 'manusia', 'sdm', 'kualitas', 'tentu', 'emas', 'usia', 'anakanak', 'membent']</t>
+          <t>['perkembangan', 'sumber', 'daya', 'manusia', 'sumber, daya, manusia', 'berkualitas', 'ditentukan', 'emas', 'usia', 'anakanak', 'membent']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kembang', 'sumber', 'daya', 'manusia', 'sumber daya manusia', 'kualitas', 'tentu', 'emas', 'usia', 'anakanak', 'membent']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22385</v>
+        <v>31459</v>
       </c>
       <c r="C21" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'tahun', 'semoga', 'pers', 'selalu', 'menjalankan', 'fungsi', 'fungsi', 'pendidikan', 'mampu', 'mencerd']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['selamat', 'pers', 'nasional', 'semoga', 'pers', 'menjalankan', 'fungsi', 'fungsi', 'pendidikan', 'mencerd']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['selamat', 'pers', 'nasional', 'moga', 'pers', 'jalan', 'fungsi', 'fungsi', 'didik', 'mencerd']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22386</v>
+        <v>31460</v>
       </c>
       <c r="C22" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['bandara', 'nyia', 'sebentar', 'lagi', 'akan', 'diresmikan', 'mohon', 'dukungannya', 'semoga', 'usulan', 'embarkasi', 'haji', 'dibangun', 'di', 'kabupaten', 'ku']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['bandara', 'nyia', 'sebentar', 'diresmikan', 'mohon', 'dukungannya', 'semoga', 'usulan', 'embarkasi', 'haji', 'dibangun', 'kabupaten', 'ku']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['bandara', 'nyia', 'sebentar', 'resmi', 'mohon', 'dukung', 'moga', 'usul', 'embarkasi', 'haji', 'bangun', 'kabupaten', 'ku']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22387</v>
+        <v>31461</v>
       </c>
       <c r="C23" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,17 +1358,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['kesiapan', 'pasukan', 'dan', 'komitmen', 'membangun', 'kebersamaan', 'menjadi', 'kunci', 'keamanan', 'pemilihan, umum', 'tahun', 'di', 'kulon', 'progo', 'mari']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['kesiapan', 'pasukan', 'komitmen', 'membangun', 'kebersamaan', 'kunci', 'keamanan', 'pemilu', 'kulon', 'progo', 'mari']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['kesiap', 'pasu', 'komitmen', 'bangun', 'sama', 'kunci', 'aman', 'milu', 'kulon', 'progo', 'mari']</t>
+          <t>['kesiapan', 'pasukan', 'komitmen', 'membangun', 'kebersamaan', 'kunci', 'keamanan', 'pemilihan, umum', 'kulon', 'progo', 'mari']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['kesiap', 'pasu', 'komitmen', 'bangun', 'sama', 'kunci', 'aman', 'pilih umum', 'kulon', 'progo', 'mari']</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22388</v>
+        <v>31462</v>
       </c>
       <c r="C24" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['tahun', 'kami', 'akan', 'fokus', 'prioritas', 'pembangunan', 'untuk', 'menjawab', 'isuisu', 'strategis', 'selesainya', 'bandara', 'nyia', 'koneksit']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['fokus', 'prioritas', 'pembangunan', 'isuisu', 'strategis', 'selesainya', 'bandara', 'nyia', 'koneksit']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['fokus', 'prioritas', 'bangun', 'isuisu', 'strategis', 'selesai', 'bandara', 'nyia', 'koneksit']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22389</v>
+        <v>31463</v>
       </c>
       <c r="C25" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,15 +1440,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'kami', 'meluncurkan', 'kios', 'dan', 'pasar', 'gratis', 'bagi', 'pedagang', 'pasar', 'bendungan', 'pedagang', 'akan', 'mulai', 'berjualan']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'meluncurkan', 'kios', 'pasar', 'gratis', 'pedagang', 'pasar', 'bendungan', 'pedagang', 'berjualan']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'luncur', 'kios', 'pasar', 'gratis', 'dagang', 'pasar', 'bendung', 'dagang', 'jual']</t>
         </is>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22390</v>
+        <v>31464</v>
       </c>
       <c r="C26" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,15 +1481,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['warga', 'miskin', 'kulon', 'progo', 'punya', 'ewarung', 'sendiri', 'kami', 'meluncurkan', 'produk', 'baru', 'toko', 'milik', 'kulon', 'progo', 'tomiku']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['warga', 'miskin', 'kulon', 'progo', 'ewarung', 'meluncurkan', 'produk', 'toko', 'milik', 'kulon', 'progo', 'tomiku']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['warga', 'miskin', 'kulon', 'progo', 'ewarung', 'luncur', 'produk', 'toko', 'milik', 'kulon', 'progo', 'tom']</t>
         </is>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22391</v>
+        <v>31465</v>
       </c>
       <c r="C27" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['semangat', 'gotongroyong', 'harus', 'dipraktekkan', 'sejak', 'dini', 'setiap', 'hari', 'minggu', 'kami', 'selalu', 'melakukan', 'bedah', 'rumah', 'dari', 'dan']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['semangat', 'gotongroyong', 'dipraktekkan', 'minggu', 'bedah', 'rumah']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['semangat', 'gotongroyong', 'praktek', 'minggu', 'bedah', 'rumah']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22392</v>
+        <v>31466</v>
       </c>
       <c r="C28" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['selamat', 'tahun', 'baru', 'semoga', 'kulon', 'progo', 'menjadi', 'kabupaten', 'yang', 'kondusif', 'bersatu', 'damai', 'dalam', 'tahun', 'politik']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['selamat', 'semoga', 'kulon', 'progo', 'kabupaten', 'kondusif', 'bersatu', 'damai', 'politik']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['selamat', 'moga', 'kulon', 'progo', 'kabupaten', 'kondusif', 'satu', 'damai', 'politik']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22393</v>
+        <v>31467</v>
       </c>
       <c r="C29" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['kami', 'bersyukur', 'dapat', 'melaunching', 'mal', 'pelayanan', 'publik', 'mpp', 'kulon', 'progo', 'masyarakat', 'dapat', 'mengurus', 'berbagai', 'layan']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['bersyukur', 'melaunching', 'mal', 'pelayanan', 'publik', 'mpp', 'kulon', 'progo', 'masyarakat', 'mengurus', 'layan']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['syukur', 'melaunching', 'mal', 'layan', 'publik', 'mpp', 'kulon', 'progo', 'masyarakat', 'urus', 'layan']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22394</v>
+        <v>31468</v>
       </c>
       <c r="C30" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'kami', 'bersyukur', 'kulon', 'progo', 'menerima', 'penghargaan', 'program', 'pintar', 'city', 'tahun', 'dari', 'menteri', 'kominfo']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['alhamdulillah', 'bersyukur', 'kulon', 'progo', 'menerima', 'penghargaan', 'program', 'smart', 'city', 'menteri', 'kominfo']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'syukur', 'kulon', 'progo', 'terima', 'harga', 'program', 'smart', 'city', 'menteri', 'kominfo']</t>
+          <t>['alhamdulillah', 'bersyukur', 'kulon', 'progo', 'menerima', 'penghargaan', 'program', 'pintar', 'city', 'menteri', 'kominfo']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'syukur', 'kulon', 'progo', 'terima', 'harga', 'program', 'pintar', 'city', 'menteri', 'kominfo']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22395</v>
+        <v>31469</v>
       </c>
       <c r="C31" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['cfds', 'ugm', 'dampingi', 'tata', 'kelola']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['cfds', 'ugm', 'dampingi', 'tata', 'kelola']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['cfds', 'ugm', 'damping', 'tata', 'kelola']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22396</v>
+        <v>31470</v>
       </c>
       <c r="C32" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['kami', 'terus', 'berupaya', 'menyiapkan', 'sumber, daya, manusia', 'bandara', 'nyia', 'dari', 'warga', 'kulon', 'progo', 'terima', 'kasih', 'kepada', 'bapak', 'curug', 'yang', 'menye']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['berupaya', 'sdm', 'bandara', 'nyia', 'warga', 'kulon', 'progo', 'terima', 'kasih', 'bp', 'curug', 'menye']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['upaya', 'sdm', 'bandara', 'nyia', 'warga', 'kulon', 'progo', 'terima', 'kasih', 'bp', 'curug', 'menye']</t>
+          <t>['berupaya', 'sumber, daya, manusia', 'bandara', 'nyia', 'warga', 'kulon', 'progo', 'terima', 'kasih', 'curug', 'menye']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['upaya', 'sumber daya manusia', 'bandara', 'nyia', 'warga', 'kulon', 'progo', 'terima', 'kasih', 'curug', 'menye']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22397</v>
+        <v>31471</v>
       </c>
       <c r="C33" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1604,15 +1764,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1623,10 +1788,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22398</v>
+        <v>31472</v>
       </c>
       <c r="C34" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1640,15 +1805,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['produksi', 'air', 'ku', 'kulon', 'progo']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['produksi', 'air', 'ku', 'kulon', 'progo']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['produksi', 'air', 'ku', 'kulon', 'progo']</t>
         </is>
@@ -1659,10 +1829,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22399</v>
+        <v>31473</v>
       </c>
       <c r="C35" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1676,15 +1846,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['dengan', 'beragam', 'inovasi', 'produk', 'yang', 'dikembangkan', 'nilai', 'ekspor', 'batu', 'andesit', 'diharapkan', 'bisa', 'melonjak']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['beragam', 'inovasi', 'produk', 'dikembangkan', 'nilai', 'ekspor', 'batu', 'andesit', 'diharapkan', 'melonjak']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['agam', 'inovasi', 'produk', 'kembang', 'nilai', 'ekspor', 'batu', 'andesit', 'harap', 'lonjak']</t>
         </is>
@@ -1695,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22400</v>
+        <v>31474</v>
       </c>
       <c r="C36" t="n">
-        <v>271</v>
+        <v>365</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1712,15 +1887,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['kulon', 'progo', 'terpilih', 'sebagai', 'daerah', 'terbaik', 'dan', 'inspiratif']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['kulon', 'progo', 'terpilih', 'daerah', 'terbaik', 'inspiratif']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['kulon', 'progo', 'pilih', 'daerah', 'baik', 'inspiratif']</t>
         </is>
